--- a/ec2_inventory.xlsx
+++ b/ec2_inventory.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Instance ID</t>
   </si>
@@ -188,6 +188,30 @@
   </si>
   <si>
     <t>DB Cluster Id</t>
+  </si>
+  <si>
+    <t>Cluster Status</t>
+  </si>
+  <si>
+    <t>MultiAZ</t>
+  </si>
+  <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>EngineVersion</t>
+  </si>
+  <si>
+    <t>Cluster Size</t>
+  </si>
+  <si>
+    <t>Reader Endpoint</t>
+  </si>
+  <si>
+    <t>Parameter Group</t>
+  </si>
+  <si>
+    <t>Storage</t>
   </si>
 </sst>
 </file>
@@ -639,18 +663,56 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="27.77734375" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
